--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,69 +453,810 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8309834822158452</v>
+        <v>0.8915734556091023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8126733961781296</v>
+        <v>0.8882635693328597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7885930586362857</v>
+        <v>0.8656118898167788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7881405592104329</v>
+        <v>0.8579782636625864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_h_percentile_25</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7542368777082537</v>
+        <v>0.8486787666418365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8482682925349607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.845488519781925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8406971556582346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8401276808693087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_25</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8324504629586826</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hsv_v_percentile_25</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8301656209448313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_25</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8261870061332253</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8234377363505881</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8161569035925191</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_25</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8098127177832233</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8055203910485975</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.800045858916746</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7934663375466331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7872003811141978</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7807617470576148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hsv_v_percentile_25</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.780748204293402</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7800608138703127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7597822544723523</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7526255019477334</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hsv_v_percentile_25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7331637538933193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7330571243216237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7323848209145372</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7314072567983703</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7253315015782459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7184603662300968</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7174496696186212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7171159738826586</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7124751283662658</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>hsv_v_percentile_25</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7107361898518478</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7009689302617311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6876546574854372</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6802514064680567</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6783994110254923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6686369792249822</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6685640006424681</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6673348780822644</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6618866272808033</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6535002868736834</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6501267974011145</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hsv_v_percentile_25</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6447918432107859</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6365113298758754</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6324063048540779</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.6321359327469661</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_75</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5698709835927096</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5045253451379923</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_75</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4791968916225215</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_75</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4445076920221396</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_75</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4376246217156879</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4361520387672974</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_75</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.3938462667866502</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3345903439290805</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3110936493967258</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2257610264904696</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1967280282034455</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1700084255457803</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1591364823287623</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05651659017805091</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>